--- a/Table_result.xlsx
+++ b/Table_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\NLP\Final_project\Experiment_result_validate_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81577FE3-BD12-45DD-AAA0-3BD77E49E588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CC71D3-E3E1-44D5-851C-1661B4E2ED3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{DE34A4D8-5A57-40A5-89D9-E873819A6758}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="47">
   <si>
     <t>precision</t>
   </si>
@@ -261,13 +261,25 @@
     <t>** Time train</t>
   </si>
   <si>
-    <t>**Param</t>
-  </si>
-  <si>
     <t>** Batch</t>
   </si>
   <si>
     <t>** Huggingface</t>
+  </si>
+  <si>
+    <t>**max_lenght</t>
+  </si>
+  <si>
+    <t>ModernBERT+ElaLora_model</t>
+  </si>
+  <si>
+    <t>2 hr - 18 min</t>
+  </si>
+  <si>
+    <t>** loralib.elalora</t>
+  </si>
+  <si>
+    <t>SVDLinear</t>
   </si>
 </sst>
 </file>
@@ -315,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +343,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -447,6 +465,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -936,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D304FE-7F42-4A2C-A44C-047A4D03C67D}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1960,7 +1981,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B73" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C73" s="21"/>
     </row>
@@ -2119,7 +2140,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B85" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C85" s="17">
         <v>128</v>
@@ -2275,20 +2296,174 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B97" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C97" s="17">
         <v>256</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B98" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C98" s="17">
         <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="12">
+        <v>10</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B102" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="F102" s="1">
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B103" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="F103" s="1">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B104" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="F104" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B105" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="F105" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B106" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="F106" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="5">
+        <v>0.91159999999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B109" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B110" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B111" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C111" s="17">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B112" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B113" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
